--- a/biology/Botanique/Cardère_sauvage/Cardère_sauvage.xlsx
+++ b/biology/Botanique/Cardère_sauvage/Cardère_sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_sauvage</t>
+          <t>Cardère_sauvage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipsacus fullonum
-La Cardère sauvage (Dipsacus fullonum ou Dipsacus sylvestris) est une espèce de plantes herbacées de la famille des Dipsacaceae selon la classification classique de Cronquist (1981)[1] ou des Caprifoliaceae selon la classification phylogénétique APG III (2009)[2]. Elle est aussi appelée Cabaret des oiseaux ou Bonnetier sauvage. Cette espèce, autrefois parfois utilisée pour le cardage de la laine, est à distinguer de la Cardère à foulon ou Chardon à Bonnetier (Dipsacus sativus) espèce à inflorescence plus longue et piquants plus courts domestiquée et utilisée pour le lainage de la laine[3],[4],[5].
-La cardère voit son nom attribué au 17e jour du mois de fructidor du calendrier républicain[6], généralement chaque 3 septembre du calendrier grégorien.
+La Cardère sauvage (Dipsacus fullonum ou Dipsacus sylvestris) est une espèce de plantes herbacées de la famille des Dipsacaceae selon la classification classique de Cronquist (1981) ou des Caprifoliaceae selon la classification phylogénétique APG III (2009). Elle est aussi appelée Cabaret des oiseaux ou Bonnetier sauvage. Cette espèce, autrefois parfois utilisée pour le cardage de la laine, est à distinguer de la Cardère à foulon ou Chardon à Bonnetier (Dipsacus sativus) espèce à inflorescence plus longue et piquants plus courts domestiquée et utilisée pour le lainage de la laine.
+La cardère voit son nom attribué au 17e jour du mois de fructidor du calendrier républicain, généralement chaque 3 septembre du calendrier grégorien.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_sauvage</t>
+          <t>Cardère_sauvage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante bisannuelle, de 70 cm à 1,5 m de haut. Les feuilles opposées par paires le long de la tige sont soudées par leur base deux à deux et forment une cuvette dans laquelle l'eau de pluie peut s'accumuler, d'où le nom vernaculaire de « cabaret des oiseaux »[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante bisannuelle, de 70 cm à 1,5 m de haut. Les feuilles opposées par paires le long de la tige sont soudées par leur base deux à deux et forment une cuvette dans laquelle l'eau de pluie peut s'accumuler, d'où le nom vernaculaire de « cabaret des oiseaux ».
 Les fleurs, de couleur rose lilas, sont groupées en capitules ovales de 5 à 9 cm de long. Ces capitules sont entourés d'un involucre formé de longues bractées munies d'aiguillons piquants. De petites bractées piquantes sont insérées entre les fleurs.
 			Aspect général.
 			Inflorescence immature.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_sauvage</t>
+          <t>Cardère_sauvage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Dipsacus fullonum se situe dans l'Ancien Monde. Elle inclut l'Afrique du Nord (Maghreb), le Proche-Orient et l'Europe, depuis les îles Britanniques, le Benelux, l'Allemagne et la Pologne jusqu'au bassin méditerranéen.
-L'espèce s'est naturalisée dans toutes les régions tempérées, notamment en Amérique du Nord (États-Unis, Canada), en Amérique du Sud (Argentine, Bolivie, Équateur, Uruguay) et en Australasie (Australie et Nouvelle-Zélande)[8].
+L'espèce s'est naturalisée dans toutes les régions tempérées, notamment en Amérique du Nord (États-Unis, Canada), en Amérique du Sud (Argentine, Bolivie, Équateur, Uruguay) et en Australasie (Australie et Nouvelle-Zélande).
 Son habitat-type est constitué par les mégaphorbiaies planitiaires-collinéennes, eutrophiles, médioeuropéennes.
 </t>
         </is>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_sauvage</t>
+          <t>Cardère_sauvage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : cyme capituliforme
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_sauvage</t>
+          <t>Cardère_sauvage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La racine, qui renferme de l'inuline comme substance de réserve, est apéritive.[réf. souhaitée]
 Certaines variétés sont cultivées comme plantes ornementales.
@@ -636,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_sauvage</t>
+          <t>Cardère_sauvage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,9 +674,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon les différentes sources taxonomiques que l'on consulte, le nom scientifique retenu de cette espèce peut être Dipsacus fullonum L.[9],[10] ou Dipsacus sylvestris Huds[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon les différentes sources taxonomiques que l'on consulte, le nom scientifique retenu de cette espèce peut être Dipsacus fullonum L., ou Dipsacus sylvestris Huds.
 Synonymie :
 Dipsacus fullonum subsp. sylvestris (Huds.) P.Fourn.</t>
         </is>
@@ -668,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_sauvage</t>
+          <t>Cardère_sauvage</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,9 +708,11 @@
           <t>Parasitisme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>La chenille d'Heliothis viriplaca (Noctuelle de la Cardère) se développe dans l'axe d'un capitule de cardère, de juillet à juin[12].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La chenille d'Heliothis viriplaca (Noctuelle de la Cardère) se développe dans l'axe d'un capitule de cardère, de juillet à juin.</t>
         </is>
       </c>
     </row>
